--- a/climate-data/climate-data.xlsx
+++ b/climate-data/climate-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\climate-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A5206-C866-4FD1-92CB-357F4059E28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9DB57C-61DA-4181-B99B-EB781E8F78E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Help and Assistance</t>
-  </si>
-  <si>
-    <t>The "PHENOTYPES" sheet should contain a definition of the different phenotypic traits evaluated in your experiment. The "DATA" sheet should contain the phenotype values in a matrix format where the columns are the phenotype names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the phenotype value for the combination of phenotype and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and phenotype there should only be one value. Replicates can be submitted across years by entereing them as different phenotype datasets. For example 'Phenotype Experiment 2016' and 'Phenotype Experiment 2017'.</t>
   </si>
   <si>
     <r>
@@ -233,12 +230,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Exemplar climate dataset</t>
-  </si>
-  <si>
-    <t>A dataset to show how to use the climate data template</t>
-  </si>
-  <si>
     <t>Cloud Cover</t>
   </si>
   <si>
@@ -381,6 +372,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>The "CLIMATES" sheet should contain a definition of the different climactic variables evaluated in your experiment. The "DATA" sheet should contain the climate values in a matrix format where the columns are the climate names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the climate value for the combination of climate and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and climate there should only be one value.</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,106 +1258,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -1372,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1384,12 +1374,12 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1450,20 +1440,20 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1464,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1475,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1486,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,7 +1497,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1545,48 +1535,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1621,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,7 +1707,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1729,7 +1719,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1741,12 +1731,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1792,10 +1782,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,30 +1865,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -1912,13 +1902,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>157</v>
@@ -2016,107 +2006,107 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2170,33 +2160,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="34">
         <v>71.257798170000001</v>
@@ -2216,10 +2206,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="38">
         <v>71.166972479999998</v>
@@ -2239,10 +2229,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="C4" s="34">
         <v>81.969724769999999</v>
@@ -2262,10 +2252,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="38">
         <v>65.707339450000006</v>
@@ -2285,10 +2275,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="34">
         <v>74.703669719999994</v>
@@ -2308,10 +2298,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>88</v>
       </c>
       <c r="C7" s="38">
         <v>73.083486239999999</v>
@@ -2331,10 +2321,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="34">
         <v>72.968807339999998</v>
@@ -2354,10 +2344,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="38">
         <v>76.782568810000001</v>
@@ -2377,10 +2367,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="34">
         <v>71.926605499999994</v>
@@ -2400,10 +2390,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="38">
         <v>68.669724770000002</v>
@@ -2423,10 +2413,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="34">
         <v>81.202752290000006</v>
@@ -2446,10 +2436,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="38">
         <v>70.068807340000006</v>
@@ -2469,10 +2459,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="34">
         <v>76.370642200000006</v>
@@ -2492,10 +2482,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="38">
         <v>76.220183489999997</v>
@@ -2515,10 +2505,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="34">
         <v>73.533027520000005</v>
@@ -2538,10 +2528,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="38">
         <v>75.496330279999995</v>
@@ -2561,10 +2551,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="34">
         <v>69.455045870000006</v>
@@ -2584,10 +2574,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="38">
         <v>82.181651380000005</v>
@@ -2607,10 +2597,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="34">
         <v>60.251376149999999</v>
@@ -2630,10 +2620,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="38">
         <v>73.72752294</v>
@@ -2653,10 +2643,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="34">
         <v>72.500917430000001</v>
@@ -2676,10 +2666,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="38">
         <v>68.874311930000005</v>
